--- a/Extract_for_python/test_2019/2023_Carolane.xlsx
+++ b/Extract_for_python/test_2019/2023_Carolane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\Info fun\Compta - pipenv\Extract_for_python\test_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFFD94B-46C4-4687-AB73-08C0A288A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE4549F-B95B-4BC3-B44E-61E2AD1C897C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="66">
   <si>
     <t>CCP - Caro, LA - Caro, LJ - Caro
-Du 01/01/2023 au 19/03/2023
+Du 01/01/2023 au 30/03/2023
 Classement des opérations par date</t>
   </si>
   <si>
@@ -626,7 +626,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2">
-        <v>45004</v>
+        <v>45015</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>44949</v>
       </c>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>44949</v>
       </c>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>44949</v>
       </c>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>44949</v>
       </c>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>44949</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>44949</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>44949</v>
       </c>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>44950</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44950</v>
       </c>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44951</v>
       </c>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>44951</v>
       </c>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>44952</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>44952</v>
       </c>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>44953</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>44956</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>44957</v>
       </c>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>44959</v>
       </c>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>44963</v>
       </c>
